--- a/excercises/excercises/30.MF.xlsx
+++ b/excercises/excercises/30.MF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7054515E-8A5F-4E87-99AD-08C676003A8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A455C-BDEC-449C-93FD-B706B554A81B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="210" windowWidth="23190" windowHeight="20790" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
@@ -22,24 +22,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
     <definedName name="betta_gas1_" localSheetId="1">'Упражнение MF 1 '!$K$26</definedName>
-    <definedName name="betta_gas1_">#REF!</definedName>
     <definedName name="betta_gas2_" localSheetId="1">'Упражнение MF 1 '!$L$26</definedName>
-    <definedName name="betta_gas2_">#REF!</definedName>
     <definedName name="betta_gas3_" localSheetId="1">'Упражнение MF 1 '!$M$26</definedName>
-    <definedName name="betta_gas3_">#REF!</definedName>
     <definedName name="Bob_" localSheetId="1">'Упражнение MF 1 '!$C$14</definedName>
     <definedName name="fw_" localSheetId="1">'Упражнение MF 1 '!$C$18</definedName>
-    <definedName name="fw_">#REF!</definedName>
     <definedName name="gamma_gas_" localSheetId="1">'Упражнение MF 1 '!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="1">'Упражнение MF 1 '!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="1">'Упражнение MF 1 '!$C$8</definedName>
-    <definedName name="gamma_wat_">#REF!</definedName>
     <definedName name="muob_" localSheetId="1">'Упражнение MF 1 '!$C$15</definedName>
-    <definedName name="muob_">#REF!</definedName>
     <definedName name="Pb_" localSheetId="1">'Упражнение MF 1 '!$C$12</definedName>
     <definedName name="PVRstr1_">'Упражнение MF 1 '!$C$20</definedName>
     <definedName name="Q_" localSheetId="1">'Упражнение MF 1 '!$C$17</definedName>
-    <definedName name="Q_">#REF!</definedName>
     <definedName name="Rp_" localSheetId="1">'Упражнение MF 1 '!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="1">'Упражнение MF 1 '!$C$10</definedName>
     <definedName name="Tres_" localSheetId="1">'Упражнение MF 1 '!$C$13</definedName>
@@ -7861,7 +7854,7 @@
       <definedName name="MF_Mumix_cP"/>
       <definedName name="MF_PGasFraction_atma"/>
       <definedName name="MF_Qmix_m3day"/>
-      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_encode_string"/>
       <definedName name="PVT_Mug_cP"/>
       <definedName name="PVT_Muo_cP"/>
       <definedName name="PVT_Muw_cP"/>
@@ -64442,7 +64435,7 @@
         <v>162</v>
       </c>
       <c r="C20" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:90.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
     </row>
@@ -64530,7 +64523,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K28" s="12">
@@ -64572,7 +64565,7 @@
         <v>50</v>
       </c>
       <c r="J29" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K29" s="12">
@@ -64614,7 +64607,7 @@
         <v>100</v>
       </c>
       <c r="J30" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K30" s="12">
@@ -64656,7 +64649,7 @@
         <v>150</v>
       </c>
       <c r="J31" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K31" s="12">
@@ -64698,7 +64691,7 @@
         <v>200</v>
       </c>
       <c r="J32" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K32" s="12">
@@ -64740,7 +64733,7 @@
         <v>250</v>
       </c>
       <c r="J33" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K33" s="12">
@@ -64782,7 +64775,7 @@
         <v>300</v>
       </c>
       <c r="J34" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K34" s="12">
@@ -64824,7 +64817,7 @@
         <v>350</v>
       </c>
       <c r="J35" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K35" s="12">
@@ -64866,7 +64859,7 @@
         <v>400</v>
       </c>
       <c r="J36" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K36" s="12">
@@ -64908,7 +64901,7 @@
         <v>450</v>
       </c>
       <c r="J37" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K37" s="12">
@@ -64950,7 +64943,7 @@
         <v>500</v>
       </c>
       <c r="J38" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K38" s="12">
@@ -64992,7 +64985,7 @@
         <v>550</v>
       </c>
       <c r="J39" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K39" s="12">
@@ -65034,7 +65027,7 @@
         <v>600</v>
       </c>
       <c r="J40" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K40" s="12">
@@ -65076,7 +65069,7 @@
         <v>650</v>
       </c>
       <c r="J41" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K41" s="12">
@@ -65118,7 +65111,7 @@
         <v>700</v>
       </c>
       <c r="J42" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K42" s="12">
@@ -65160,7 +65153,7 @@
         <v>750</v>
       </c>
       <c r="J43" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K43" s="12">
@@ -65202,7 +65195,7 @@
         <v>800</v>
       </c>
       <c r="J44" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K44" s="12">
@@ -65244,7 +65237,7 @@
         <v>850</v>
       </c>
       <c r="J45" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K45" s="12">
@@ -65286,7 +65279,7 @@
         <v>900</v>
       </c>
       <c r="J46" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K46" s="12">
@@ -65328,7 +65321,7 @@
         <v>950</v>
       </c>
       <c r="J47" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K47" s="12">
@@ -65370,7 +65363,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K48" s="12">
@@ -65412,7 +65405,7 @@
         <v>1050</v>
       </c>
       <c r="J49" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1050.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K49" s="12">
@@ -65454,7 +65447,7 @@
         <v>1100</v>
       </c>
       <c r="J50" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K50" s="12">
@@ -65496,7 +65489,7 @@
         <v>1150</v>
       </c>
       <c r="J51" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K51" s="12">
@@ -65538,7 +65531,7 @@
         <v>1200</v>
       </c>
       <c r="J52" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K52" s="12">
@@ -65580,7 +65573,7 @@
         <v>1250</v>
       </c>
       <c r="J53" s="26" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K53" s="12">
